--- a/samplephysical.xlsx
+++ b/samplephysical.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hypex\projects\excel2payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A0A514-914E-46D9-8ABF-CB3A188AC127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD296DA-B789-4DD4-9B48-45FB23F62C9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplephysical" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>testing@checkbook.io</t>
-  </si>
-  <si>
-    <t>Widgets Inc.</t>
-  </si>
-  <si>
-    <t>Test Check</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>1234 Grainger Rd.</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Grainger School</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>test record</t>
+  </si>
+  <si>
+    <t>5432 Sunny St.</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Sunny's BBQ</t>
+  </si>
+  <si>
+    <t>3845 Waverly Ln.</t>
+  </si>
+  <si>
+    <t>Brookdale</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Jon Trost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,14 +214,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -522,13 +559,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -562,7 +598,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -882,39 +917,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="1">
+        <v>61820</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>1000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>83046</v>
+      </c>
+      <c r="I1">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>83047</v>
+      </c>
+      <c r="M1">
+        <v>175</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12005</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>72395</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40030</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>